--- a/zr75_data_ZR75only.xlsx
+++ b/zr75_data_ZR75only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarkpg\Downloads\new data2\new data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BC\Technicians\LET\Projects\LET02-Theradesign (groningen)\paper\240524_excel files for submitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044A94E0-2EA9-4BA9-AAD2-DC90E0E904BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{154220AD-4418-4A48-866F-12CCD1F2F6B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Akt</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ZR-75-1 30 minutes ins + aa</t>
   </si>
   <si>
-    <t>Table S1: Model input data from MCF7 and ZR-75-1 experiments</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
@@ -110,27 +107,6 @@
     <t>Normalized data:</t>
   </si>
   <si>
-    <t>Akt-pT308</t>
-  </si>
-  <si>
-    <t>Akt-pS473</t>
-  </si>
-  <si>
-    <t>PRAS40-pT246</t>
-  </si>
-  <si>
-    <t>S6K-pT389</t>
-  </si>
-  <si>
-    <t>TSC2-pT1462</t>
-  </si>
-  <si>
-    <t>4E-BP1-pT37/46</t>
-  </si>
-  <si>
-    <t>IRS1-pS636/639</t>
-  </si>
-  <si>
     <t>Average:</t>
   </si>
   <si>
@@ -183,6 +159,15 @@
   </si>
   <si>
     <t>4E-BP1pT37/46</t>
+  </si>
+  <si>
+    <t>n.d.</t>
+  </si>
+  <si>
+    <t>orange background color</t>
+  </si>
+  <si>
+    <t>Table S2: Model input data from ZR-75-1 cell line</t>
   </si>
 </sst>
 </file>
@@ -237,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -527,11 +512,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -550,7 +548,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -580,6 +577,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,9 +637,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,9 +672,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,9 +724,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,83 +917,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E7BA2-BC25-4D99-8764-7AC63E3D3896}">
-  <dimension ref="A1:BI56"/>
+  <dimension ref="A1:BC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R34" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7265625" customWidth="1"/>
+    <col min="24" max="24" width="29.77734375" customWidth="1"/>
     <col min="25" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="40" max="49" width="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="51" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="61" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="5" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="7" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="8" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="11" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="12" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="13" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="14" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="8" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="15" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -969,13 +1002,13 @@
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -987,236 +1020,225 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="3"/>
       <c r="V35" s="1"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="1" t="s">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="1" t="s">
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="1" t="s">
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="3"/>
-    </row>
-    <row r="36" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
-        <v>27</v>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="3"/>
+    </row>
+    <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI36" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="X36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1238,6 +1260,9 @@
       <c r="G37">
         <v>0.65284869634487763</v>
       </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
       <c r="I37" s="8">
         <v>0.61708498969851588</v>
       </c>
@@ -1277,106 +1302,104 @@
       <c r="U37" s="8">
         <v>0.455328434391501</v>
       </c>
-      <c r="Y37" s="8"/>
+      <c r="X37">
+        <v>0.71113137799383952</v>
+      </c>
+      <c r="Y37">
+        <v>0.4693869187298127</v>
+      </c>
       <c r="Z37">
-        <v>0.71113137799383952</v>
-      </c>
-      <c r="AA37">
-        <v>0.4693869187298127</v>
+        <v>0.42759771736493041</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0.62498649456897393</v>
       </c>
       <c r="AB37">
-        <v>0.42759771736493041</v>
-      </c>
-      <c r="AC37" s="8">
-        <v>0.62498649456897393</v>
+        <v>5.5750345377031142E-2</v>
+      </c>
+      <c r="AC37">
+        <v>0.25565242521759007</v>
       </c>
       <c r="AD37">
-        <v>5.5750345377031142E-2</v>
-      </c>
-      <c r="AE37">
-        <v>0.25565242521759007</v>
+        <v>0.21239916154344671</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>0.51975788133359191</v>
       </c>
       <c r="AF37">
-        <v>0.21239916154344671</v>
-      </c>
-      <c r="AG37" s="8">
-        <v>0.51975788133359191</v>
-      </c>
-      <c r="AK37" s="8"/>
+        <v>1.1078823361026322</v>
+      </c>
+      <c r="AG37">
+        <v>0.8706439337004841</v>
+      </c>
+      <c r="AH37">
+        <v>0.95384936383226127</v>
+      </c>
+      <c r="AI37" s="8">
+        <v>0.9098372443765198</v>
+      </c>
+      <c r="AJ37">
+        <v>0.35828423397084846</v>
+      </c>
+      <c r="AK37">
+        <v>0.85267647542220071</v>
+      </c>
       <c r="AL37">
-        <v>1.1078823361026322</v>
-      </c>
-      <c r="AM37">
-        <v>0.8706439337004841</v>
+        <v>0.38648216630977172</v>
+      </c>
+      <c r="AM37" s="8">
+        <v>0.63600512017315791</v>
       </c>
       <c r="AN37">
-        <v>0.95384936383226127</v>
-      </c>
-      <c r="AO37" s="8">
-        <v>0.9098372443765198</v>
+        <v>0.96158124304578019</v>
+      </c>
+      <c r="AO37">
+        <v>0.47921601787313728</v>
       </c>
       <c r="AP37">
-        <v>0.35828423397084846</v>
-      </c>
-      <c r="AQ37">
-        <v>0.85267647542220071</v>
+        <v>0.38226420576283671</v>
+      </c>
+      <c r="AQ37" s="8">
+        <v>0.54038895994446046</v>
       </c>
       <c r="AR37">
-        <v>0.38648216630977172</v>
-      </c>
-      <c r="AS37" s="8">
-        <v>0.63600512017315791</v>
+        <v>0.36403078952476836</v>
+      </c>
+      <c r="AS37">
+        <v>0.34553948230818382</v>
       </c>
       <c r="AT37">
-        <v>0.96158124304578019</v>
-      </c>
-      <c r="AU37">
-        <v>0.47921601787313728</v>
+        <v>0.2721153521069743</v>
+      </c>
+      <c r="AU37" s="8">
+        <v>0.31050314412993102</v>
       </c>
       <c r="AV37">
-        <v>0.38226420576283671</v>
-      </c>
-      <c r="AW37" s="8">
-        <v>0.54038895994446046</v>
+        <v>1.5713004018827594</v>
+      </c>
+      <c r="AW37">
+        <v>2.3149161840678762</v>
       </c>
       <c r="AX37">
-        <v>0.36403078952476836</v>
-      </c>
-      <c r="AY37">
-        <v>0.34553948230818382</v>
-      </c>
-      <c r="AZ37">
-        <v>0.2721153521069743</v>
-      </c>
-      <c r="BA37" s="8">
-        <v>0.31050314412993102</v>
+        <v>1.170713784205959</v>
+      </c>
+      <c r="AY37" s="8">
+        <v>0.92864005815808037</v>
+      </c>
+      <c r="AZ37" s="7">
+        <v>0.36566721702461574</v>
+      </c>
+      <c r="BA37">
+        <v>0.61975320838636072</v>
       </c>
       <c r="BB37">
-        <v>1.5713004018827594</v>
-      </c>
-      <c r="BC37">
-        <v>2.3149161840678762</v>
-      </c>
-      <c r="BD37">
-        <v>1.170713784205959</v>
-      </c>
-      <c r="BE37" s="8">
-        <v>0.92864005815808037</v>
-      </c>
-      <c r="BF37" s="7">
-        <v>0.36566721702461574</v>
-      </c>
-      <c r="BG37">
-        <v>0.61975320838636072</v>
-      </c>
-      <c r="BH37">
         <v>0.65260664870532581</v>
       </c>
-      <c r="BI37" s="8">
+      <c r="BC37" s="8">
         <v>0.58691594418952941</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -1398,6 +1421,9 @@
       <c r="G38">
         <v>0.96346288674595426</v>
       </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
       <c r="I38" s="8">
         <v>1.2238073218036614</v>
       </c>
@@ -1437,106 +1463,104 @@
       <c r="U38" s="8">
         <v>1.5276013248755567</v>
       </c>
-      <c r="Y38" s="8"/>
+      <c r="X38">
+        <v>1.067938505450688</v>
+      </c>
+      <c r="Y38">
+        <v>0.52151955955235707</v>
+      </c>
       <c r="Z38">
-        <v>1.067938505450688</v>
-      </c>
-      <c r="AA38">
-        <v>0.52151955955235707</v>
+        <v>0.44285674856591567</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0.68854764956391046</v>
       </c>
       <c r="AB38">
-        <v>0.44285674856591567</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>0.68854764956391046</v>
+        <v>0.25776806784719758</v>
+      </c>
+      <c r="AC38">
+        <v>0.41255800431333917</v>
       </c>
       <c r="AD38">
-        <v>0.25776806784719758</v>
-      </c>
-      <c r="AE38">
-        <v>0.41255800431333917</v>
+        <v>0.32087860844201971</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>0.52711571680144131</v>
       </c>
       <c r="AF38">
-        <v>0.32087860844201971</v>
-      </c>
-      <c r="AG38" s="8">
-        <v>0.52711571680144131</v>
-      </c>
-      <c r="AK38" s="8"/>
+        <v>0.85051442469700811</v>
+      </c>
+      <c r="AG38">
+        <v>0.84474437424224158</v>
+      </c>
+      <c r="AH38">
+        <v>1.0186154380150769</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>0.84852034115786179</v>
+      </c>
+      <c r="AJ38">
+        <v>0.62372989692883352</v>
+      </c>
+      <c r="AK38">
+        <v>0.91165537393239948</v>
+      </c>
       <c r="AL38">
-        <v>0.85051442469700811</v>
-      </c>
-      <c r="AM38">
-        <v>0.84474437424224158</v>
+        <v>0.7452554731301585</v>
+      </c>
+      <c r="AM38" s="8">
+        <v>0.85378262855327591</v>
       </c>
       <c r="AN38">
-        <v>1.0186154380150769</v>
-      </c>
-      <c r="AO38" s="8">
-        <v>0.84852034115786179</v>
+        <v>0.98444376605578876</v>
+      </c>
+      <c r="AO38">
+        <v>0.93162560163265151</v>
       </c>
       <c r="AP38">
-        <v>0.62372989692883352</v>
-      </c>
-      <c r="AQ38">
-        <v>0.91165537393239948</v>
+        <v>0.52207985849848104</v>
+      </c>
+      <c r="AQ38" s="8">
+        <v>0.44803832809368321</v>
       </c>
       <c r="AR38">
-        <v>0.7452554731301585</v>
-      </c>
-      <c r="AS38" s="8">
-        <v>0.85378262855327591</v>
+        <v>0.75027242001635197</v>
+      </c>
+      <c r="AS38">
+        <v>0.43879585658314019</v>
       </c>
       <c r="AT38">
-        <v>0.98444376605578876</v>
-      </c>
-      <c r="AU38">
-        <v>0.93162560163265151</v>
+        <v>0.30911157598096639</v>
+      </c>
+      <c r="AU38" s="8">
+        <v>0.5471442478749966</v>
       </c>
       <c r="AV38">
-        <v>0.52207985849848104</v>
-      </c>
-      <c r="AW38" s="8">
-        <v>0.44803832809368321</v>
+        <v>1.2884017764116205</v>
+      </c>
+      <c r="AW38">
+        <v>1.1170416001790628</v>
       </c>
       <c r="AX38">
-        <v>0.75027242001635197</v>
-      </c>
-      <c r="AY38">
-        <v>0.43879585658314019</v>
-      </c>
-      <c r="AZ38">
-        <v>0.30911157598096639</v>
-      </c>
-      <c r="BA38" s="8">
-        <v>0.5471442478749966</v>
+        <v>2.0686077771329061</v>
+      </c>
+      <c r="AY38" s="8">
+        <v>0.96064807700303056</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>1.488369466658344</v>
+      </c>
+      <c r="BA38">
+        <v>1.1214745149545886</v>
       </c>
       <c r="BB38">
-        <v>1.2884017764116205</v>
-      </c>
-      <c r="BC38">
-        <v>1.1170416001790628</v>
-      </c>
-      <c r="BD38">
-        <v>2.0686077771329061</v>
-      </c>
-      <c r="BE38" s="8">
-        <v>0.96064807700303056</v>
-      </c>
-      <c r="BF38" s="7">
-        <v>1.488369466658344</v>
-      </c>
-      <c r="BG38">
-        <v>1.1214745149545886</v>
-      </c>
-      <c r="BH38">
         <v>0.87231530142890046</v>
       </c>
-      <c r="BI38" s="8">
+      <c r="BC38" s="8">
         <v>1.0108234512797891</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
@@ -1558,6 +1582,9 @@
       <c r="G39">
         <v>0.88889270363364703</v>
       </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
       <c r="I39" s="8">
         <v>1.059640391875855</v>
       </c>
@@ -1597,106 +1624,104 @@
       <c r="U39" s="8">
         <v>1.4538927312634646</v>
       </c>
-      <c r="Y39" s="8"/>
+      <c r="X39">
+        <v>0.89356413540226165</v>
+      </c>
+      <c r="Y39">
+        <v>0.57160329692898715</v>
+      </c>
       <c r="Z39">
-        <v>0.89356413540226165</v>
-      </c>
-      <c r="AA39">
-        <v>0.57160329692898715</v>
+        <v>0.37692112562915564</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>0.80336094536669156</v>
       </c>
       <c r="AB39">
-        <v>0.37692112562915564</v>
-      </c>
-      <c r="AC39" s="8">
-        <v>0.80336094536669156</v>
+        <v>0.43189946483643599</v>
+      </c>
+      <c r="AC39">
+        <v>0.60701437502078215</v>
       </c>
       <c r="AD39">
-        <v>0.43189946483643599</v>
-      </c>
-      <c r="AE39">
-        <v>0.60701437502078215</v>
+        <v>0.64777741102800623</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>0.73749190542391541</v>
       </c>
       <c r="AF39">
-        <v>0.64777741102800623</v>
-      </c>
-      <c r="AG39" s="8">
-        <v>0.73749190542391541</v>
-      </c>
-      <c r="AK39" s="8"/>
+        <v>1.099946346629348</v>
+      </c>
+      <c r="AG39">
+        <v>0.86404040914902247</v>
+      </c>
+      <c r="AH39">
+        <v>0.92461384469423002</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>0.98256150625164551</v>
+      </c>
+      <c r="AJ39">
+        <v>0.56040686920411242</v>
+      </c>
+      <c r="AK39">
+        <v>0.905737392413548</v>
+      </c>
       <c r="AL39">
-        <v>1.099946346629348</v>
-      </c>
-      <c r="AM39">
-        <v>0.86404040914902247</v>
+        <v>1.0115398407633198</v>
+      </c>
+      <c r="AM39" s="8">
+        <v>0.96255037222028283</v>
       </c>
       <c r="AN39">
-        <v>0.92461384469423002</v>
-      </c>
-      <c r="AO39" s="8">
-        <v>0.98256150625164551</v>
+        <v>0.97342641370210825</v>
+      </c>
+      <c r="AO39">
+        <v>0.88498244602861331</v>
       </c>
       <c r="AP39">
-        <v>0.56040686920411242</v>
-      </c>
-      <c r="AQ39">
-        <v>0.905737392413548</v>
+        <v>0.56541648425509772</v>
+      </c>
+      <c r="AQ39" s="8">
+        <v>0.56554108662574032</v>
       </c>
       <c r="AR39">
-        <v>1.0115398407633198</v>
-      </c>
-      <c r="AS39" s="8">
-        <v>0.96255037222028283</v>
+        <v>0.70490000370045391</v>
+      </c>
+      <c r="AS39">
+        <v>1.1123285463809067</v>
       </c>
       <c r="AT39">
-        <v>0.97342641370210825</v>
-      </c>
-      <c r="AU39">
-        <v>0.88498244602861331</v>
+        <v>0.55803641988182229</v>
+      </c>
+      <c r="AU39" s="8">
+        <v>0.59047908585441933</v>
       </c>
       <c r="AV39">
-        <v>0.56541648425509772</v>
-      </c>
-      <c r="AW39" s="8">
-        <v>0.56554108662574032</v>
+        <v>2.1598653478630307</v>
+      </c>
+      <c r="AW39">
+        <v>0.9466250818369939</v>
       </c>
       <c r="AX39">
-        <v>0.70490000370045391</v>
-      </c>
-      <c r="AY39">
-        <v>1.1123285463809067</v>
-      </c>
-      <c r="AZ39">
-        <v>0.55803641988182229</v>
-      </c>
-      <c r="BA39" s="8">
-        <v>0.59047908585441933</v>
+        <v>1.5465717561407353</v>
+      </c>
+      <c r="AY39" s="8">
+        <v>1.1491205125843178</v>
+      </c>
+      <c r="AZ39" s="7">
+        <v>2.0757522759961926</v>
+      </c>
+      <c r="BA39">
+        <v>1.2075483263334252</v>
       </c>
       <c r="BB39">
-        <v>2.1598653478630307</v>
-      </c>
-      <c r="BC39">
-        <v>0.9466250818369939</v>
-      </c>
-      <c r="BD39">
-        <v>1.5465717561407353</v>
-      </c>
-      <c r="BE39" s="8">
-        <v>1.1491205125843178</v>
-      </c>
-      <c r="BF39" s="7">
-        <v>2.0757522759961926</v>
-      </c>
-      <c r="BG39">
-        <v>1.2075483263334252</v>
-      </c>
-      <c r="BH39">
         <v>2.0179064555364632</v>
       </c>
-      <c r="BI39" s="8">
+      <c r="BC39" s="8">
         <v>1.7122345989405168</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1718,6 +1743,9 @@
       <c r="G40">
         <v>1.0974357278818863</v>
       </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
       <c r="I40" s="8">
         <v>0.91159737057469248</v>
       </c>
@@ -1757,106 +1785,104 @@
       <c r="U40" s="8">
         <v>1.3232961931714382</v>
       </c>
-      <c r="Y40" s="8"/>
+      <c r="X40">
+        <v>0.88709786625942821</v>
+      </c>
+      <c r="Y40">
+        <v>0.57258500974978699</v>
+      </c>
       <c r="Z40">
-        <v>0.88709786625942821</v>
-      </c>
-      <c r="AA40">
-        <v>0.57258500974978699</v>
+        <v>0.38287049684324825</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>0.74583890564636757</v>
       </c>
       <c r="AB40">
-        <v>0.38287049684324825</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>0.74583890564636757</v>
+        <v>0.54683848776458799</v>
+      </c>
+      <c r="AC40">
+        <v>0.65266923073805538</v>
       </c>
       <c r="AD40">
-        <v>0.54683848776458799</v>
-      </c>
-      <c r="AE40">
-        <v>0.65266923073805538</v>
+        <v>1.0140809503110335</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>0.74256563650523733</v>
       </c>
       <c r="AF40">
-        <v>1.0140809503110335</v>
-      </c>
-      <c r="AG40" s="8">
-        <v>0.74256563650523733</v>
-      </c>
-      <c r="AK40" s="8"/>
+        <v>0.49876197083319757</v>
+      </c>
+      <c r="AG40">
+        <v>0.91987422415194986</v>
+      </c>
+      <c r="AH40">
+        <v>0.92199462256137454</v>
+      </c>
+      <c r="AI40" s="8">
+        <v>1.0078427268955328</v>
+      </c>
+      <c r="AJ40">
+        <v>0.58631084998930427</v>
+      </c>
+      <c r="AK40">
+        <v>0.91915058788300952</v>
+      </c>
       <c r="AL40">
-        <v>0.49876197083319757</v>
-      </c>
-      <c r="AM40">
-        <v>0.91987422415194986</v>
+        <v>0.98954624661531865</v>
+      </c>
+      <c r="AM40" s="8">
+        <v>0.91228031595448134</v>
       </c>
       <c r="AN40">
-        <v>0.92199462256137454</v>
-      </c>
-      <c r="AO40" s="8">
-        <v>1.0078427268955328</v>
+        <v>0.96654096779240584</v>
+      </c>
+      <c r="AO40">
+        <v>1.0333280096201041</v>
       </c>
       <c r="AP40">
-        <v>0.58631084998930427</v>
-      </c>
-      <c r="AQ40">
-        <v>0.91915058788300952</v>
+        <v>0.54063342625781441</v>
+      </c>
+      <c r="AQ40" s="8">
+        <v>0.52026437118595814</v>
       </c>
       <c r="AR40">
-        <v>0.98954624661531865</v>
-      </c>
-      <c r="AS40" s="8">
-        <v>0.91228031595448134</v>
+        <v>0.61825694109407558</v>
+      </c>
+      <c r="AS40">
+        <v>1.2857271480408528</v>
       </c>
       <c r="AT40">
-        <v>0.96654096779240584</v>
-      </c>
-      <c r="AU40">
-        <v>1.0333280096201041</v>
+        <v>0.55141826768331248</v>
+      </c>
+      <c r="AU40" s="8">
+        <v>0.59640174325017892</v>
       </c>
       <c r="AV40">
-        <v>0.54063342625781441</v>
-      </c>
-      <c r="AW40" s="8">
-        <v>0.52026437118595814</v>
+        <v>1.4525119902402783</v>
+      </c>
+      <c r="AW40">
+        <v>1.3432593823248138</v>
       </c>
       <c r="AX40">
-        <v>0.61825694109407558</v>
-      </c>
-      <c r="AY40">
-        <v>1.2857271480408528</v>
-      </c>
-      <c r="AZ40">
-        <v>0.55141826768331248</v>
-      </c>
-      <c r="BA40" s="8">
-        <v>0.59640174325017892</v>
+        <v>1.5655962682690454</v>
+      </c>
+      <c r="AY40" s="8">
+        <v>1.0420439136012589</v>
+      </c>
+      <c r="AZ40" s="7">
+        <v>1.8717675702223664</v>
+      </c>
+      <c r="BA40">
+        <v>1.3409207942523125</v>
       </c>
       <c r="BB40">
-        <v>1.4525119902402783</v>
-      </c>
-      <c r="BC40">
-        <v>1.3432593823248138</v>
-      </c>
-      <c r="BD40">
-        <v>1.5655962682690454</v>
-      </c>
-      <c r="BE40" s="8">
-        <v>1.0420439136012589</v>
-      </c>
-      <c r="BF40" s="7">
-        <v>1.8717675702223664</v>
-      </c>
-      <c r="BG40">
-        <v>1.3409207942523125</v>
-      </c>
-      <c r="BH40">
         <v>2.0402082123803678</v>
       </c>
-      <c r="BI40" s="8">
+      <c r="BC40" s="8">
         <v>1.6513161423272955</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -1878,6 +1904,9 @@
       <c r="G41">
         <v>0.9997600789614467</v>
       </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
       <c r="I41" s="8">
         <v>0.84817647053869782</v>
       </c>
@@ -1917,106 +1946,104 @@
       <c r="U41" s="8">
         <v>0.99559563514644167</v>
       </c>
-      <c r="Y41" s="8"/>
+      <c r="X41">
+        <v>0.85476399810858505</v>
+      </c>
+      <c r="Y41">
+        <v>0.68639509967095769</v>
+      </c>
       <c r="Z41">
-        <v>0.85476399810858505</v>
-      </c>
-      <c r="AA41">
-        <v>0.68639509967095769</v>
+        <v>0.37222072154716712</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>0.62595600843548049</v>
       </c>
       <c r="AB41">
-        <v>0.37222072154716712</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>0.62595600843548049</v>
+        <v>0.49293241449029407</v>
+      </c>
+      <c r="AC41">
+        <v>0.62292232108550916</v>
       </c>
       <c r="AD41">
-        <v>0.49293241449029407</v>
-      </c>
-      <c r="AE41">
-        <v>0.62292232108550916</v>
+        <v>1.2383521087937319</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>0.59918678100281897</v>
       </c>
       <c r="AF41">
-        <v>1.2383521087937319</v>
-      </c>
-      <c r="AG41" s="8">
-        <v>0.59918678100281897</v>
-      </c>
-      <c r="AK41" s="8"/>
+        <v>0.60442124417466436</v>
+      </c>
+      <c r="AG41">
+        <v>0.92350982547297278</v>
+      </c>
+      <c r="AH41">
+        <v>0.8924382513585345</v>
+      </c>
+      <c r="AI41" s="8">
+        <v>0.83851666729333407</v>
+      </c>
+      <c r="AJ41">
+        <v>0.68349568485890444</v>
+      </c>
+      <c r="AK41">
+        <v>0.953945545936144</v>
+      </c>
       <c r="AL41">
-        <v>0.60442124417466436</v>
-      </c>
-      <c r="AM41">
-        <v>0.92350982547297278</v>
+        <v>1.0418540767068214</v>
+      </c>
+      <c r="AM41" s="8">
+        <v>0.81592127324360364</v>
       </c>
       <c r="AN41">
-        <v>0.8924382513585345</v>
-      </c>
-      <c r="AO41" s="8">
-        <v>0.83851666729333407</v>
+        <v>0.995942957737177</v>
+      </c>
+      <c r="AO41">
+        <v>1.075959456419991</v>
       </c>
       <c r="AP41">
-        <v>0.68349568485890444</v>
-      </c>
-      <c r="AQ41">
-        <v>0.953945545936144</v>
+        <v>0.45591640478031459</v>
+      </c>
+      <c r="AQ41" s="8">
+        <v>0.48804470743021428</v>
       </c>
       <c r="AR41">
-        <v>1.0418540767068214</v>
-      </c>
-      <c r="AS41" s="8">
-        <v>0.81592127324360364</v>
+        <v>0.75629844792055334</v>
+      </c>
+      <c r="AS41">
+        <v>1.4710560345990031</v>
       </c>
       <c r="AT41">
-        <v>0.995942957737177</v>
-      </c>
-      <c r="AU41">
-        <v>1.075959456419991</v>
+        <v>0.38040527575238769</v>
+      </c>
+      <c r="AU41" s="8">
+        <v>0.42140051981153603</v>
       </c>
       <c r="AV41">
-        <v>0.45591640478031459</v>
-      </c>
-      <c r="AW41" s="8">
-        <v>0.48804470743021428</v>
+        <v>1.0929266057755356</v>
+      </c>
+      <c r="AW41">
+        <v>1.1626678744083494</v>
       </c>
       <c r="AX41">
-        <v>0.75629844792055334</v>
-      </c>
-      <c r="AY41">
-        <v>1.4710560345990031</v>
-      </c>
-      <c r="AZ41">
-        <v>0.38040527575238769</v>
-      </c>
-      <c r="BA41" s="8">
-        <v>0.42140051981153603</v>
+        <v>1.2343733572225555</v>
+      </c>
+      <c r="AY41" s="8">
+        <v>1.0673808762819839</v>
+      </c>
+      <c r="AZ41" s="7">
+        <v>1.8416246770231579</v>
+      </c>
+      <c r="BA41">
+        <v>1.2647251013636578</v>
       </c>
       <c r="BB41">
-        <v>1.0929266057755356</v>
-      </c>
-      <c r="BC41">
-        <v>1.1626678744083494</v>
-      </c>
-      <c r="BD41">
-        <v>1.2343733572225555</v>
-      </c>
-      <c r="BE41" s="8">
-        <v>1.0673808762819839</v>
-      </c>
-      <c r="BF41" s="7">
-        <v>1.8416246770231579</v>
-      </c>
-      <c r="BG41">
-        <v>1.2647251013636578</v>
-      </c>
-      <c r="BH41">
         <v>1.3499936135616304</v>
       </c>
-      <c r="BI41" s="8">
+      <c r="BC41" s="8">
         <v>1.3920844681446234</v>
       </c>
     </row>
-    <row r="42" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2065,9 @@
       <c r="G42" s="5">
         <v>1.1025471031845469</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I42" s="6">
         <v>0.84420256629774137</v>
       </c>
@@ -2080,733 +2109,727 @@
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="6"/>
+      <c r="X42" s="5">
+        <v>0.79284709951200383</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0.68929079865027754</v>
+      </c>
       <c r="Z42" s="5">
-        <v>0.79284709951200383</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>0.68929079865027754</v>
+        <v>0.3240158691097636</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>0.53433884242603724</v>
       </c>
       <c r="AB42" s="5">
-        <v>0.3240158691097636</v>
-      </c>
-      <c r="AC42" s="6">
-        <v>0.53433884242603724</v>
+        <v>0.35743569747637743</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>0.75711714625626048</v>
       </c>
       <c r="AD42" s="5">
-        <v>0.35743569747637743</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>0.75711714625626048</v>
+        <v>1.217991297418322</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>0.45747636796132707</v>
       </c>
       <c r="AF42" s="5">
-        <v>1.217991297418322</v>
-      </c>
-      <c r="AG42" s="6">
-        <v>0.45747636796132707</v>
-      </c>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="6"/>
+        <v>0.47193653118856482</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>1.1650304383394665</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>0.85786329677958506</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>0.8195254743579492</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>0.78167933526351285</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>1.2310232331251596</v>
+      </c>
       <c r="AL42" s="5">
-        <v>0.47193653118856482</v>
-      </c>
-      <c r="AM42" s="5">
-        <v>1.1650304383394665</v>
+        <v>0.79722022798504066</v>
+      </c>
+      <c r="AM42" s="6">
+        <v>0.7981371205598865</v>
       </c>
       <c r="AN42" s="5">
-        <v>0.85786329677958506</v>
-      </c>
-      <c r="AO42" s="6">
-        <v>0.8195254743579492</v>
+        <v>0.80345647429127232</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>0.78847337844160181</v>
       </c>
       <c r="AP42" s="5">
-        <v>0.78167933526351285</v>
-      </c>
-      <c r="AQ42" s="5">
-        <v>1.2310232331251596</v>
+        <v>0.42782709633257937</v>
+      </c>
+      <c r="AQ42" s="6">
+        <v>0.40354708990926769</v>
       </c>
       <c r="AR42" s="5">
-        <v>0.79722022798504066</v>
-      </c>
-      <c r="AS42" s="6">
-        <v>0.7981371205598865</v>
+        <v>0.54352819243734218</v>
+      </c>
+      <c r="AS42" s="5">
+        <v>1.4866655607947086</v>
       </c>
       <c r="AT42" s="5">
-        <v>0.80345647429127232</v>
-      </c>
-      <c r="AU42" s="5">
-        <v>0.78847337844160181</v>
+        <v>0.49526318572368649</v>
+      </c>
+      <c r="AU42" s="6">
+        <v>0.45061314563640992</v>
       </c>
       <c r="AV42" s="5">
-        <v>0.42782709633257937</v>
-      </c>
-      <c r="AW42" s="6">
-        <v>0.40354708990926769</v>
+        <v>0.99308358777778605</v>
+      </c>
+      <c r="AW42" s="5">
+        <v>2.1402799483017043</v>
       </c>
       <c r="AX42" s="5">
-        <v>0.54352819243734218</v>
-      </c>
-      <c r="AY42" s="5">
-        <v>1.4866655607947086</v>
-      </c>
-      <c r="AZ42" s="5">
-        <v>0.49526318572368649</v>
-      </c>
-      <c r="BA42" s="6">
-        <v>0.45061314563640992</v>
+        <v>1.454288371245779</v>
+      </c>
+      <c r="AY42" s="6">
+        <v>0.99119434877542623</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>1.6305708795301002</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>1.4292881083993512</v>
       </c>
       <c r="BB42" s="5">
-        <v>0.99308358777778605</v>
-      </c>
-      <c r="BC42" s="5">
-        <v>2.1402799483017043</v>
-      </c>
-      <c r="BD42" s="5">
-        <v>1.454288371245779</v>
-      </c>
-      <c r="BE42" s="6">
-        <v>0.99119434877542623</v>
-      </c>
-      <c r="BF42" s="4">
-        <v>1.6305708795301002</v>
-      </c>
-      <c r="BG42" s="5">
-        <v>1.4292881083993512</v>
-      </c>
-      <c r="BH42" s="5">
         <v>1.4642906525509585</v>
       </c>
-      <c r="BI42" s="6">
+      <c r="BC42" s="6">
         <v>1.3091506181111627</v>
       </c>
     </row>
-    <row r="43" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="X44" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y44" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="33" t="s">
+    <row r="44" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="U46" s="29"/>
+      <c r="X46" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y46" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="29" t="s">
+      <c r="Z46" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA46" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB46" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="29" t="s">
+      <c r="AC46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD46" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="29" t="s">
+      <c r="AE46" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF46" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="27" t="s">
+      <c r="AG46" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="29" t="s">
+      <c r="AI46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ46" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="30"/>
-      <c r="X46" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y46" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA46" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB46" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD46" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF46" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG46" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH46" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI46" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ46" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AK46" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>0.88924086540626845</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>0.47331336412122416</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>0.48340624614648298</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>1.027526007079778</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <v>0.38295452999250607</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>0.55827562716438917</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <v>0.26088995336791498</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="17">
         <v>0.96055321950297434</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="17">
         <v>0.55836199896899474</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="17">
         <v>0.59086260665655366</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <v>0.3230471920174644</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="17">
         <v>1.4963926070786688</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="20">
         <v>0.55623575457645791</v>
       </c>
       <c r="X47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="16">
         <v>1.8405976654058877E-2</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="Z47" s="17">
         <v>0.14028123751962374</v>
       </c>
-      <c r="AA47" s="18">
+      <c r="AA47" s="17">
         <v>0.15814559762083244</v>
       </c>
-      <c r="AB47" s="18">
+      <c r="AB47" s="17">
         <v>4.1472073596785335E-2</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AC47" s="17">
         <v>9.6052312918872618E-2</v>
       </c>
-      <c r="AD47" s="18">
+      <c r="AD47" s="17">
         <v>6.6328185931918415E-2</v>
       </c>
-      <c r="AE47" s="18">
+      <c r="AE47" s="17">
         <v>9.6381901607090176E-2</v>
       </c>
-      <c r="AF47" s="18">
+      <c r="AF47" s="17">
         <v>5.1966816403539645E-2</v>
       </c>
-      <c r="AG47" s="18">
+      <c r="AG47" s="17">
         <v>0.11626953392938069</v>
       </c>
-      <c r="AH47" s="18">
+      <c r="AH47" s="17">
         <v>0.12778828520287436</v>
       </c>
-      <c r="AI47" s="18">
+      <c r="AI47" s="17">
         <v>2.0283334376681221E-2</v>
       </c>
-      <c r="AJ47" s="18">
+      <c r="AJ47" s="17">
         <v>0.30331524803455956</v>
       </c>
-      <c r="AK47" s="21">
+      <c r="AK47" s="20">
         <v>6.4922683319617772E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>0.92379015601791026</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>1.1668166603734702</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>0.97141931121213854</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <v>1.10863220559273</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="17">
         <v>1.0375077262571641</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="17">
         <v>0.68021561578321788</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="17">
         <v>0.37958009935099946</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="17">
         <v>0.89059864452804716</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="17">
         <v>0.78360584313616688</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="17">
         <v>0.72154688857015115</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="17">
         <v>0.51133102511386386</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="17">
         <v>1.3586748076816551</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="20">
         <v>1.1232456835804057</v>
       </c>
       <c r="X48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y48" s="17">
+      <c r="Y48" s="16">
         <v>4.3153409764079463E-2</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="Z48" s="17">
         <v>9.0845234706399908E-2</v>
       </c>
-      <c r="AA48" s="18">
+      <c r="AA48" s="17">
         <v>0.12107079512837866</v>
       </c>
-      <c r="AB48" s="18">
+      <c r="AB48" s="17">
         <v>7.7617979991854297E-2</v>
       </c>
-      <c r="AC48" s="18">
+      <c r="AC48" s="17">
         <v>0.1716075525552016</v>
       </c>
-      <c r="AD48" s="18">
+      <c r="AD48" s="17">
         <v>0.13902102121289805</v>
       </c>
-      <c r="AE48" s="18">
+      <c r="AE48" s="17">
         <v>5.8550787559610989E-2</v>
       </c>
-      <c r="AF48" s="18">
+      <c r="AF48" s="17">
         <v>4.2689032365976778E-2</v>
       </c>
-      <c r="AG48" s="18">
+      <c r="AG48" s="17">
         <v>6.3477379569353828E-2</v>
       </c>
-      <c r="AH48" s="18">
+      <c r="AH48" s="17">
         <v>0.13779267718001109</v>
       </c>
-      <c r="AI48" s="18">
+      <c r="AI48" s="17">
         <v>9.3331681564496144E-2</v>
       </c>
-      <c r="AJ48" s="18">
+      <c r="AJ48" s="17">
         <v>0.245925972150912</v>
       </c>
-      <c r="AK48" s="21">
+      <c r="AK48" s="20">
         <v>0.13194801028233291</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>0.91881019068818526</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <v>1.1223004306497917</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17">
         <v>1.096069591582026</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="17">
         <v>1.1485102960204421</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="17">
         <v>1.3113108865703402</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="17">
         <v>0.66136237583177393</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="17">
         <v>0.6060457890772849</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="17">
         <v>0.96779052668106147</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="17">
         <v>0.86005861865031574</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="17">
         <v>0.74734160765288993</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="17">
         <v>0.74143601395440051</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="17">
         <v>1.4505456746062695</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N49" s="20">
         <v>1.7533604142016497</v>
       </c>
       <c r="X49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y49" s="17">
+      <c r="Y49" s="16">
         <v>4.6238993169821364E-2</v>
       </c>
-      <c r="Z49" s="18">
+      <c r="Z49" s="17">
         <v>0.13512104269409936</v>
       </c>
-      <c r="AA49" s="18">
+      <c r="AA49" s="17">
         <v>0.15191693382953525</v>
       </c>
-      <c r="AB49" s="18">
+      <c r="AB49" s="17">
         <v>5.6747597584314378E-2</v>
       </c>
-      <c r="AC49" s="18">
+      <c r="AC49" s="17">
         <v>7.0113256753880235E-2</v>
       </c>
-      <c r="AD49" s="18">
+      <c r="AD49" s="17">
         <v>0.11656356204517022</v>
       </c>
-      <c r="AE49" s="18">
+      <c r="AE49" s="17">
         <v>6.4127145954072554E-2</v>
       </c>
-      <c r="AF49" s="18">
+      <c r="AF49" s="17">
         <v>5.0259041756170943E-2</v>
       </c>
-      <c r="AG49" s="18">
+      <c r="AG49" s="17">
         <v>0.10219623342756609</v>
       </c>
-      <c r="AH49" s="18">
+      <c r="AH49" s="17">
         <v>0.10653931976979583</v>
       </c>
-      <c r="AI49" s="18">
+      <c r="AI49" s="17">
         <v>0.12757989519721652</v>
       </c>
-      <c r="AJ49" s="18">
+      <c r="AJ49" s="17">
         <v>0.26726212154001538</v>
       </c>
-      <c r="AK49" s="21">
+      <c r="AK49" s="20">
         <v>0.19864610250418371</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>0.93998659881904112</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>0.99288525857891263</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>0.89144907911746007</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>1.1416139743923421</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <v>1.2036154273819191</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="17">
         <v>0.64709806962470784</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="17">
         <v>0.73903857632972858</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="17">
         <v>0.8371183861105137</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="17">
         <v>0.85182200011052844</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="17">
         <v>0.76519169371407059</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="17">
         <v>0.76295102501710488</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="17">
         <v>1.3508528886088491</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="20">
         <v>1.7260531797955856</v>
       </c>
       <c r="X50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y50" s="17">
+      <c r="Y50" s="16">
         <v>3.8894283379523026E-2</v>
       </c>
-      <c r="Z50" s="18">
+      <c r="Z50" s="17">
         <v>4.7539022203264503E-2</v>
       </c>
-      <c r="AA50" s="18">
+      <c r="AA50" s="17">
         <v>7.8015168193330264E-2</v>
       </c>
-      <c r="AB50" s="18">
+      <c r="AB50" s="17">
         <v>6.2454984152899004E-2</v>
       </c>
-      <c r="AC50" s="18">
+      <c r="AC50" s="17">
         <v>0.118112990435043</v>
       </c>
-      <c r="AD50" s="18">
+      <c r="AD50" s="17">
         <v>0.10905581957300133</v>
       </c>
-      <c r="AE50" s="18">
+      <c r="AE50" s="17">
         <v>0.10002553238262693</v>
       </c>
-      <c r="AF50" s="18">
+      <c r="AF50" s="17">
         <v>0.11463142695170084</v>
       </c>
-      <c r="AG50" s="18">
+      <c r="AG50" s="17">
         <v>9.0209240842301044E-2</v>
       </c>
-      <c r="AH50" s="18">
+      <c r="AH50" s="17">
         <v>0.13627619713999889</v>
       </c>
-      <c r="AI50" s="18">
+      <c r="AI50" s="17">
         <v>0.17481323925082204</v>
       </c>
-      <c r="AJ50" s="18">
+      <c r="AJ50" s="17">
         <v>0.11249812459004092</v>
       </c>
-      <c r="AK50" s="21">
+      <c r="AK50" s="20">
         <v>0.15106252768296047</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>0.86520497447862899</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>0.96776238188883645</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>0.8228282767277606</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="17">
         <v>1.0347900113198332</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <v>1.3308673611949355</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="17">
         <v>0.63483395694054756</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="17">
         <v>0.73834840634308851</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="17">
         <v>0.81472149707487651</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="17">
         <v>0.8738041451863684</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="17">
         <v>0.75396588159192413</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="17">
         <v>0.75729006952086997</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="17">
         <v>1.139337178422106</v>
       </c>
-      <c r="N51" s="21">
+      <c r="N51" s="20">
         <v>1.4621069650232672</v>
       </c>
       <c r="X51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y51" s="17">
+      <c r="Y51" s="16">
         <v>3.2817987478543614E-2</v>
       </c>
-      <c r="Z51" s="18">
+      <c r="Z51" s="17">
         <v>5.3614757870058399E-2</v>
       </c>
-      <c r="AA51" s="18">
+      <c r="AA51" s="17">
         <v>9.9442916482832308E-2</v>
       </c>
-      <c r="AB51" s="18">
+      <c r="AB51" s="17">
         <v>5.6925477187482164E-2</v>
       </c>
-      <c r="AC51" s="18">
+      <c r="AC51" s="17">
         <v>0.11453687612190055</v>
       </c>
-      <c r="AD51" s="18">
+      <c r="AD51" s="17">
         <v>0.10003012205550806</v>
       </c>
-      <c r="AE51" s="18">
+      <c r="AE51" s="17">
         <v>0.16904680087840518</v>
       </c>
-      <c r="AF51" s="18">
+      <c r="AF51" s="17">
         <v>7.2265252592824375E-2</v>
       </c>
-      <c r="AG51" s="18">
+      <c r="AG51" s="17">
         <v>7.865068368780867E-2</v>
       </c>
-      <c r="AH51" s="18">
+      <c r="AH51" s="17">
         <v>0.16375294631079162</v>
       </c>
-      <c r="AI51" s="18">
+      <c r="AI51" s="17">
         <v>0.25237650009380308</v>
       </c>
-      <c r="AJ51" s="18">
+      <c r="AJ51" s="17">
         <v>3.7536479287106662E-2</v>
       </c>
-      <c r="AK51" s="21">
+      <c r="AK51" s="20">
         <v>0.12924970904817476</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>1.0096824667428681</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <v>0.92282249874416278</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>0.88825672071082551</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>1.0890592596845816</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <v>1.3027545448690452</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="19">
         <v>0.58512315242452051</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>0.69750512727807168</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="19">
         <v>0.82858893516639132</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <v>0.90201497923339991</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>0.60582600974368028</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="19">
         <v>0.74401752114803676</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="19">
         <v>1.3947115640251739</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="21">
         <v>1.4583250646478931</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y52" s="19">
+      <c r="Y52" s="18">
         <v>0.1179505072904207</v>
       </c>
-      <c r="Z52" s="20">
+      <c r="Z52" s="19">
         <v>7.802578253223344E-2</v>
       </c>
-      <c r="AA52" s="20">
+      <c r="AA52" s="19">
         <v>0.18466896903406774</v>
       </c>
-      <c r="AB52" s="20">
+      <c r="AB52" s="19">
         <v>8.4587406691308861E-2</v>
       </c>
-      <c r="AC52" s="20">
+      <c r="AC52" s="19">
         <v>0.1966532175009969</v>
       </c>
-      <c r="AD52" s="20">
+      <c r="AD52" s="19">
         <v>0.1019624915740478</v>
       </c>
-      <c r="AE52" s="20">
+      <c r="AE52" s="19">
         <v>0.19315806750316938</v>
       </c>
-      <c r="AF52" s="20">
+      <c r="AF52" s="19">
         <v>0.14181353863736243</v>
       </c>
-      <c r="AG52" s="20">
+      <c r="AG52" s="19">
         <v>0.10973439439177377</v>
       </c>
-      <c r="AH52" s="20">
+      <c r="AH52" s="19">
         <v>0.10993112858910088</v>
       </c>
-      <c r="AI52" s="20">
+      <c r="AI52" s="19">
         <v>0.24827520494397745</v>
       </c>
-      <c r="AJ52" s="20">
+      <c r="AJ52" s="19">
         <v>0.27134737666854275</v>
       </c>
-      <c r="AK52" s="22">
+      <c r="AK52" s="21">
         <v>6.6332727789018484E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B56" s="25"/>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B56" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,121 +2842,123 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
